--- a/Data/final_calibration/final_settings.xlsx
+++ b/Data/final_calibration/final_settings.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/login/Documents/MysticLakeBins/MWMW/Data/final_calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4065F279-20BC-C242-A403-06CCC1AFB964}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDC109C-268E-654A-BE5C-05198CF742B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16340"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2 Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Parameter Values" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>New Calibration</t>
   </si>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -674,10 +674,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -723,7 +725,88 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1032,11 +1115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1367,11 +1450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1382,561 +1465,571 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>167.69169169200001</v>
-      </c>
-      <c r="C4">
-        <v>170.396396396</v>
-      </c>
-      <c r="D4">
-        <v>109.206874</v>
-      </c>
-      <c r="E4">
-        <v>99.761621840000004</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>167.69169169200001</v>
+      </c>
+      <c r="C5">
+        <v>170.396396396</v>
+      </c>
+      <c r="D5">
+        <v>109.206874</v>
+      </c>
+      <c r="E5">
+        <v>99.761621840000004</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4.6346346346299999E-2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>9.7997997998000005E-2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6.8628115000000003E-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>4.5068461999999997E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>99009.009009000001</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>52432.432432399997</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>56738.073629999999</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>51895.165439999997</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>94000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>15507.027027</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>16553.513513499998</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1414.636499</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>916.06469900000002</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>6600</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2830</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2830</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2830</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2830</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2830</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.4</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.4</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.11811811811800001</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.22660860799999999</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.32386336700000001</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>6.7667667667699993E-2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>7.7677677677699994E-2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.206381123</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.19662256</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>0.14614614614599999</v>
-      </c>
-      <c r="C12">
-        <v>1.0410410410400001E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.19632877900000001</v>
-      </c>
-      <c r="E12">
-        <v>0.21217169799999999</v>
       </c>
       <c r="F12">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0.14614614614599999</v>
+      </c>
+      <c r="C13">
+        <v>1.0410410410400001E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.19632877900000001</v>
+      </c>
+      <c r="E13">
+        <v>0.21217169799999999</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>77.747747747700004</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>130.89189189199999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>55.90805332</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>50.80946368</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>0.16</v>
-      </c>
-      <c r="C16">
-        <v>0.16</v>
-      </c>
-      <c r="D16">
-        <v>0.16</v>
-      </c>
-      <c r="E16">
-        <v>0.16</v>
-      </c>
-      <c r="F16">
-        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>2.7477477477500001</v>
+        <v>0.16</v>
       </c>
       <c r="C17">
-        <v>0.65765765765799999</v>
+        <v>0.16</v>
       </c>
       <c r="D17">
-        <v>3.1948750399999999</v>
+        <v>0.16</v>
       </c>
       <c r="E17">
-        <v>2.619413405</v>
+        <v>0.16</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.7477477477500001</v>
       </c>
       <c r="C18">
-        <v>9.9599599599600006E-2</v>
+        <v>0.65765765765799999</v>
       </c>
       <c r="D18">
-        <v>0.25733010899999997</v>
+        <v>3.1948750399999999</v>
       </c>
       <c r="E18">
-        <v>0.26449367499999998</v>
+        <v>2.619413405</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>9.9599599599600006E-2</v>
       </c>
       <c r="D19">
-        <v>10000</v>
+        <v>0.25733010899999997</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>0.26449367499999998</v>
       </c>
       <c r="F19">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C20">
-        <v>34.134134134100002</v>
+        <v>10000</v>
       </c>
       <c r="D20">
-        <v>50.816861729999999</v>
+        <v>10000</v>
       </c>
       <c r="E20">
-        <v>48.56536852</v>
+        <v>10000</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>34.134134134100002</v>
       </c>
       <c r="D21">
-        <v>0.01</v>
+        <v>50.816861729999999</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>48.56536852</v>
       </c>
       <c r="F21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>2.21622405405</v>
+        <v>0.01</v>
       </c>
       <c r="C22">
-        <v>1.9459564864900001</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>1.8350026699999999</v>
+        <v>0.01</v>
       </c>
       <c r="E22">
-        <v>1.123846243</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>2.21622405405</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>1.9459564864900001</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>1.8350026699999999</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>1.123846243</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>0.51291291291300001</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>1.4910910910899999</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>1.2533546680000001</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>2.3995871069999999</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>5.9882282282299997</v>
+        <v>0.51291291291300001</v>
       </c>
       <c r="C28">
-        <v>3.9426626626600001</v>
+        <v>1.4910910910899999</v>
       </c>
       <c r="D28">
-        <v>0.51111675000000001</v>
+        <v>1.2533546680000001</v>
       </c>
       <c r="E28">
-        <v>4.3209338529999997</v>
+        <v>2.3995871069999999</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1944,19 +2037,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>0.27907907907899998</v>
+        <v>5.9882282282299997</v>
       </c>
       <c r="C29">
-        <v>7.21521521522E-2</v>
+        <v>3.9426626626600001</v>
       </c>
       <c r="D29">
-        <v>0.219407462</v>
+        <v>0.51111675000000001</v>
       </c>
       <c r="E29">
-        <v>0.23194158200000001</v>
+        <v>4.3209338529999997</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1964,21 +2057,41 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>0.27907907907899998</v>
+      </c>
+      <c r="C30">
+        <v>7.21521521522E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.219407462</v>
+      </c>
+      <c r="E30">
+        <v>0.23194158200000001</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>8.0280280280300005</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>2.9729729729700001</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>0.68451800799999996</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>3.0127093189999998</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>

--- a/Data/final_calibration/final_settings.xlsx
+++ b/Data/final_calibration/final_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/login/Documents/MysticLakeBins/MWMW/Data/final_calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDC109C-268E-654A-BE5C-05198CF742B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D222B-AF00-724F-9C05-30B21AD2F8D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,6 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -674,12 +677,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -725,88 +731,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1119,7 +1044,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="B1:E1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1189,10 +1114,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.49399999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="C4">
-        <v>0.45600000000000002</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D4">
         <v>0.52900000000000003</v>
@@ -1209,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.79100000000000004</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D5">
         <v>0.81200000000000006</v>
@@ -1229,10 +1154,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C6">
-        <v>0.27400000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="D6">
         <v>0.874</v>
@@ -1249,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.84699999999999998</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C7">
-        <v>0.70499999999999996</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D7">
         <v>0.83</v>
@@ -1269,18 +1194,18 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.47299999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="C8">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="D8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.68</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.73</v>
       </c>
     </row>
@@ -1289,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-1.052</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>-0.77900000000000003</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D9">
         <v>-0.22500000000000001</v>
@@ -1309,10 +1234,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.014</v>
+        <v>-0.64400000000000002</v>
       </c>
       <c r="C10">
-        <v>-2.294</v>
+        <v>-1.782</v>
       </c>
       <c r="D10">
         <v>-3.0950000000000002</v>
@@ -1329,10 +1254,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.69699999999999995</v>
+        <v>-0.97</v>
       </c>
       <c r="C11">
-        <v>-1.1479999999999999</v>
+        <v>-0.59</v>
       </c>
       <c r="D11">
         <v>-1.8140000000000001</v>
@@ -1369,18 +1294,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.499</v>
+        <v>-1.08</v>
       </c>
       <c r="C13" s="1">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="D13" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D13" s="5">
         <v>0.71599999999999997</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>-1.758</v>
       </c>
     </row>
@@ -1388,11 +1313,13 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="C14">
-        <v>0.55900000000000005</v>
+      <c r="B14" s="7">
+        <f>AVERAGE(B4:B7)</f>
+        <v>0.67899999999999994</v>
+      </c>
+      <c r="C14" s="7">
+        <f>AVERAGE(C4:C7)</f>
+        <v>0.57150000000000001</v>
       </c>
       <c r="D14">
         <v>0.76100000000000001</v>
@@ -1408,11 +1335,13 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>-0.29799999999999999</v>
-      </c>
-      <c r="C15">
-        <v>-0.35699999999999998</v>
+      <c r="B15" s="7">
+        <f>AVERAGE(B8:B13)</f>
+        <v>-0.11316666666666669</v>
+      </c>
+      <c r="C15" s="7">
+        <f>AVERAGE(C8:C13)</f>
+        <v>-0.21016666666666664</v>
       </c>
       <c r="D15">
         <v>-0.67300000000000004</v>
@@ -1429,10 +1358,12 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>0.04</v>
+        <f>AVERAGE(B4:B13)</f>
+        <v>0.20369999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>8.9999999999999993E-3</v>
+        <f>AVERAGE(C4:C13)</f>
+        <v>0.10250000000000001</v>
       </c>
       <c r="D16" s="2">
         <v>-0.1</v>
@@ -1446,6 +1377,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1454,7 +1386,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1560,10 +1492,10 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>167.69169169200001</v>
+        <v>138.55863451600001</v>
       </c>
       <c r="C5">
-        <v>170.396396396</v>
+        <v>141.22986576100001</v>
       </c>
       <c r="D5">
         <v>109.206874</v>
@@ -1580,10 +1512,10 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>4.6346346346299999E-2</v>
+        <v>5.1843749727600003E-2</v>
       </c>
       <c r="C6">
-        <v>9.7997997998000005E-2</v>
+        <v>1.40581314755E-2</v>
       </c>
       <c r="D6">
         <v>6.8628115000000003E-2</v>
@@ -1600,10 +1532,10 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>99009.009009000001</v>
+        <v>68244.418147699995</v>
       </c>
       <c r="C7">
-        <v>52432.432432399997</v>
+        <v>44561.955394600001</v>
       </c>
       <c r="D7">
         <v>56738.073629999999</v>
@@ -1620,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>15507.027027</v>
+        <v>11708.640198499999</v>
       </c>
       <c r="C8">
-        <v>16553.513513499998</v>
+        <v>12749.2593934</v>
       </c>
       <c r="D8">
         <v>1414.636499</v>
@@ -1683,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.11811811811800001</v>
+        <v>0.26819329086900001</v>
       </c>
       <c r="D11">
         <v>0.22660860799999999</v>
@@ -1700,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>6.7667667667699993E-2</v>
+        <v>0.30539867148099997</v>
       </c>
       <c r="C12">
-        <v>7.7677677677699994E-2</v>
+        <v>0.32129990394500002</v>
       </c>
       <c r="D12">
         <v>0.206381123</v>
@@ -1720,10 +1652,10 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>0.14614614614599999</v>
+        <v>0.200052748186</v>
       </c>
       <c r="C13">
-        <v>1.0410410410400001E-2</v>
+        <v>0.195372401749</v>
       </c>
       <c r="D13">
         <v>0.19632877900000001</v>
@@ -1740,10 +1672,10 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>77.747747747700004</v>
+        <v>174.58732170299999</v>
       </c>
       <c r="C14">
-        <v>130.89189189199999</v>
+        <v>112.391718114</v>
       </c>
       <c r="D14">
         <v>55.90805332</v>
@@ -1820,10 +1752,10 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>2.7477477477500001</v>
+        <v>0.24259268122399999</v>
       </c>
       <c r="C18">
-        <v>0.65765765765799999</v>
+        <v>0.90346521516</v>
       </c>
       <c r="D18">
         <v>3.1948750399999999</v>
@@ -1843,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.9599599599600006E-2</v>
+        <v>0.26238950665600003</v>
       </c>
       <c r="D19">
         <v>0.25733010899999997</v>
@@ -1883,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>34.134134134100002</v>
+        <v>1.61137762158</v>
       </c>
       <c r="D21">
         <v>50.816861729999999</v>
@@ -1920,10 +1852,10 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>2.21622405405</v>
+        <v>1.72236222566</v>
       </c>
       <c r="C23">
-        <v>1.9459564864900001</v>
+        <v>0.99317525233899995</v>
       </c>
       <c r="D23">
         <v>1.8350026699999999</v>
@@ -2020,10 +1952,10 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>0.51291291291300001</v>
+        <v>1.6001548531000001</v>
       </c>
       <c r="C28">
-        <v>1.4910910910899999</v>
+        <v>1.21424401799</v>
       </c>
       <c r="D28">
         <v>1.2533546680000001</v>
@@ -2040,10 +1972,10 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>5.9882282282299997</v>
+        <v>1.40451725979</v>
       </c>
       <c r="C29">
-        <v>3.9426626626600001</v>
+        <v>7.8795156781599998</v>
       </c>
       <c r="D29">
         <v>0.51111675000000001</v>
@@ -2060,10 +1992,10 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>0.27907907907899998</v>
+        <v>0.82731049629200004</v>
       </c>
       <c r="C30">
-        <v>7.21521521522E-2</v>
+        <v>1.08089350835</v>
       </c>
       <c r="D30">
         <v>0.219407462</v>
@@ -2080,10 +2012,10 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>8.0280280280300005</v>
+        <v>3.6780535943600001</v>
       </c>
       <c r="C31">
-        <v>2.9729729729700001</v>
+        <v>5.9429647371999996</v>
       </c>
       <c r="D31">
         <v>0.68451800799999996</v>

--- a/Data/final_calibration/final_settings.xlsx
+++ b/Data/final_calibration/final_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/login/Documents/MysticLakeBins/MWMW/Data/final_calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D222B-AF00-724F-9C05-30B21AD2F8D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7280EB-3938-A847-AC41-256727A78E92}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
-  <si>
-    <t>New Calibration</t>
-  </si>
-  <si>
-    <t>Old Calibration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>No calibration</t>
-  </si>
-  <si>
-    <t>Chemistry Objective</t>
   </si>
   <si>
     <t>Chem+Gene Objective</t>
@@ -178,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -685,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1055,323 +1046,213 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.49377359997100001</v>
+      </c>
+      <c r="C3">
+        <v>0.434782138697</v>
+      </c>
+      <c r="D3">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.79108783724999998</v>
+      </c>
+      <c r="C4">
+        <v>0.79827826957699999</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6.0216731051999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.27726432923</v>
+      </c>
+      <c r="D5">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.84738517232999999</v>
+      </c>
+      <c r="C6">
+        <v>0.74725322885299994</v>
+      </c>
+      <c r="D6">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.472693430034</v>
+      </c>
+      <c r="C7">
+        <v>0.58706067350299995</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1.05188841441</v>
+      </c>
+      <c r="C8">
+        <v>-0.73043144415799999</v>
+      </c>
+      <c r="D8">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1.0135129729500001</v>
+      </c>
+      <c r="C9">
+        <v>-1.2492263305</v>
+      </c>
+      <c r="D9">
+        <v>-0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-0.69722591272500001</v>
+      </c>
+      <c r="C10">
+        <v>-0.22593009868</v>
+      </c>
+      <c r="D10">
+        <v>-1.694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="C4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="E4">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="D5">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="E5">
-        <v>0.87</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.21</v>
-      </c>
-      <c r="D6">
-        <v>0.874</v>
-      </c>
-      <c r="E6">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="F6">
-        <v>0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="D7">
-        <v>0.83</v>
-      </c>
-      <c r="E7">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="F7">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="C8">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="D9">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="E9">
-        <v>-1.0509999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>-0.64400000000000002</v>
-      </c>
-      <c r="C10">
-        <v>-1.782</v>
-      </c>
-      <c r="D10">
-        <v>-3.0950000000000002</v>
-      </c>
-      <c r="E10">
-        <v>-2.1120000000000001</v>
-      </c>
-      <c r="F10">
-        <v>-0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B12" s="1">
+        <v>-0.498723281337</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.59676794253099996</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1.758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickTop="1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>-0.97</v>
-      </c>
-      <c r="C11">
-        <v>-0.59</v>
-      </c>
-      <c r="D11">
-        <v>-1.8140000000000001</v>
-      </c>
-      <c r="E11">
-        <v>-1.8109999999999999</v>
-      </c>
-      <c r="F11">
-        <v>-1.694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B13" s="7">
+        <v>0.54811583515075002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.56439449158924992</v>
+      </c>
+      <c r="D13">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="E12">
-        <v>-0.113</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="7">
+        <v>-0.29810952523133333</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-3.6265428839999947E-3</v>
+      </c>
+      <c r="D14">
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>-1.08</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="F13" s="5">
-        <v>-1.758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickTop="1">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <f>AVERAGE(B4:B7)</f>
-        <v>0.67899999999999994</v>
-      </c>
-      <c r="C14" s="7">
-        <f>AVERAGE(C4:C7)</f>
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="D14">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="F14">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <f>AVERAGE(B8:B13)</f>
-        <v>-0.11316666666666669</v>
-      </c>
-      <c r="C15" s="7">
-        <f>AVERAGE(C8:C13)</f>
-        <v>-0.21016666666666664</v>
-      </c>
-      <c r="D15">
-        <v>-0.67300000000000004</v>
-      </c>
-      <c r="E15">
-        <v>-0.68500000000000005</v>
-      </c>
-      <c r="F15">
-        <v>-0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <f>AVERAGE(B4:B13)</f>
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C4:C13)</f>
-        <v>0.10250000000000001</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B15" s="2">
+        <v>4.0380618921499994E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.22358187090529996</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -1383,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1398,17 +1279,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1418,22 +1299,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1442,23 +1317,17 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1469,561 +1338,379 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>138.55863451600001</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>167.69169199999999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>138.55863451600001</v>
+        <v>5.1843749727600003E-2</v>
       </c>
       <c r="C5">
-        <v>141.22986576100001</v>
+        <v>4.63463504E-2</v>
       </c>
       <c r="D5">
-        <v>109.206874</v>
-      </c>
-      <c r="E5">
-        <v>99.761621840000004</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>5.1843749727600003E-2</v>
+        <v>68244.418147699995</v>
       </c>
       <c r="C6">
-        <v>1.40581314755E-2</v>
+        <v>99009.009000000005</v>
       </c>
       <c r="D6">
-        <v>6.8628115000000003E-2</v>
-      </c>
-      <c r="E6">
-        <v>4.5068461999999997E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>68244.418147699995</v>
+        <v>11708.640198499999</v>
       </c>
       <c r="C7">
-        <v>44561.955394600001</v>
+        <v>15507.027</v>
       </c>
       <c r="D7">
-        <v>56738.073629999999</v>
-      </c>
-      <c r="E7">
-        <v>51895.165439999997</v>
-      </c>
-      <c r="F7">
-        <v>94000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>11708.640198499999</v>
+        <v>2830</v>
       </c>
       <c r="C8">
-        <v>12749.2593934</v>
+        <v>2830</v>
       </c>
       <c r="D8">
-        <v>1414.636499</v>
-      </c>
-      <c r="E8">
-        <v>916.06469900000002</v>
-      </c>
-      <c r="F8">
-        <v>6600</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>2830</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>2830</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>2830</v>
-      </c>
-      <c r="E9">
-        <v>2830</v>
-      </c>
-      <c r="F9">
-        <v>2830</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.30539867148099997</v>
       </c>
       <c r="C11">
-        <v>0.26819329086900001</v>
+        <v>6.7667662500000003E-2</v>
       </c>
       <c r="D11">
-        <v>0.22660860799999999</v>
-      </c>
-      <c r="E11">
-        <v>0.32386336700000001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.30539867148099997</v>
+        <v>0.200052748186</v>
       </c>
       <c r="C12">
-        <v>0.32129990394500002</v>
+        <v>0.14614613500000001</v>
       </c>
       <c r="D12">
-        <v>0.206381123</v>
-      </c>
-      <c r="E12">
-        <v>0.19662256</v>
-      </c>
-      <c r="F12">
         <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.200052748186</v>
+        <v>174.58732170299999</v>
       </c>
       <c r="C13">
-        <v>0.195372401749</v>
+        <v>77.747747000000004</v>
       </c>
       <c r="D13">
-        <v>0.19632877900000001</v>
-      </c>
-      <c r="E13">
-        <v>0.21217169799999999</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>174.58732170299999</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>112.391718114</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>55.90805332</v>
-      </c>
-      <c r="E14">
-        <v>50.80946368</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0.16</v>
+      </c>
+      <c r="C16">
+        <v>0.16</v>
+      </c>
+      <c r="D16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0.24259268122399999</v>
+      </c>
+      <c r="C17">
+        <v>2.74774758</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>1.72236222566</v>
+      </c>
+      <c r="C22">
+        <v>2.2162238799999998</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C24">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>0.16</v>
-      </c>
-      <c r="C17">
-        <v>0.16</v>
-      </c>
-      <c r="D17">
-        <v>0.16</v>
-      </c>
-      <c r="E17">
-        <v>0.16</v>
-      </c>
-      <c r="F17">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>0.24259268122399999</v>
-      </c>
-      <c r="C18">
-        <v>0.90346521516</v>
-      </c>
-      <c r="D18">
-        <v>3.1948750399999999</v>
-      </c>
-      <c r="E18">
-        <v>2.619413405</v>
-      </c>
-      <c r="F18">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>1.6001548531000001</v>
+      </c>
+      <c r="C27">
+        <v>0.51291287400000007</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.26238950665600003</v>
-      </c>
-      <c r="D19">
-        <v>0.25733010899999997</v>
-      </c>
-      <c r="E19">
-        <v>0.26449367499999998</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20">
-        <v>10000</v>
-      </c>
-      <c r="F20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1.61137762158</v>
-      </c>
-      <c r="D21">
-        <v>50.816861729999999</v>
-      </c>
-      <c r="E21">
-        <v>48.56536852</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0.01</v>
-      </c>
-      <c r="C22">
-        <v>0.01</v>
-      </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
-        <v>0.01</v>
-      </c>
-      <c r="F22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>1.72236222566</v>
-      </c>
-      <c r="C23">
-        <v>0.99317525233899995</v>
-      </c>
-      <c r="D23">
-        <v>1.8350026699999999</v>
-      </c>
-      <c r="E23">
-        <v>1.123846243</v>
-      </c>
-      <c r="F23">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>1.40451725979</v>
+      </c>
+      <c r="C28">
+        <v>5.9882277699999999</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>0.1</v>
-      </c>
-      <c r="C26">
-        <v>0.1</v>
-      </c>
-      <c r="D26">
-        <v>0.1</v>
-      </c>
-      <c r="E26">
-        <v>0.1</v>
-      </c>
-      <c r="F26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0.82731049629200004</v>
+      </c>
+      <c r="C29">
+        <v>0.27907905799999999</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>1.6001548531000001</v>
-      </c>
-      <c r="C28">
-        <v>1.21424401799</v>
-      </c>
-      <c r="D28">
-        <v>1.2533546680000001</v>
-      </c>
-      <c r="E28">
-        <v>2.3995871069999999</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <v>1.40451725979</v>
-      </c>
-      <c r="C29">
-        <v>7.8795156781599998</v>
-      </c>
-      <c r="D29">
-        <v>0.51111675000000001</v>
-      </c>
-      <c r="E29">
-        <v>4.3209338529999997</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
       <c r="B30">
-        <v>0.82731049629200004</v>
+        <v>3.6780535943600001</v>
       </c>
       <c r="C30">
-        <v>1.08089350835</v>
+        <v>8.0280279700000001</v>
       </c>
       <c r="D30">
-        <v>0.219407462</v>
-      </c>
-      <c r="E30">
-        <v>0.23194158200000001</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
-        <v>3.6780535943600001</v>
-      </c>
-      <c r="C31">
-        <v>5.9429647371999996</v>
-      </c>
-      <c r="D31">
-        <v>0.68451800799999996</v>
-      </c>
-      <c r="E31">
-        <v>3.0127093189999998</v>
-      </c>
-      <c r="F31">
         <v>1</v>
       </c>
     </row>
